--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1795624.066158175</v>
+        <v>1793079.787004118</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>417425.6313448935</v>
+        <v>417425.6313448926</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>219.4450108596164</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>208.2085323732918</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>48.44626081894172</v>
       </c>
       <c r="T3" t="n">
-        <v>97.997064871815</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>41.65170393035857</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>223.0674146002375</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>263.7138800015061</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>19.72100737961695</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="W5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>68.53264881198402</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>28.33708868093411</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>83.43224246993566</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>68.05955538367301</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>233.8447291789213</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>192.0872650464914</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>41.28371368070833</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>16.71410042222081</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>380.1644453249795</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>404.3066494032042</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8053789271548</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1749784766142</v>
+        <v>283.1749784766141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.74901076264484</v>
+        <v>83.7490107626447</v>
       </c>
       <c r="T11" t="n">
         <v>199.0311623452477</v>
@@ -1464,7 +1464,7 @@
         <v>134.4021710092738</v>
       </c>
       <c r="H12" t="n">
-        <v>83.82823269715944</v>
+        <v>83.82823269715939</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.45410804752338</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5250535492193</v>
       </c>
       <c r="H13" t="n">
-        <v>140.3028503125646</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.29336059121913</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.41639999081839</v>
+        <v>66.41639999081826</v>
       </c>
       <c r="S13" t="n">
         <v>181.0422364341346</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4093609706218</v>
+        <v>217.4093609706217</v>
       </c>
       <c r="U13" t="n">
         <v>286.1845243123506</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>152.0835135769677</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I16" t="n">
-        <v>35.88641949135547</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0.825382616189214</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>22.65115569188744</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>9.146142788178468</v>
+        <v>23.62554568140797</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631857025</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="E28" t="n">
-        <v>9.146142788178468</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057764</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3007,13 +3007,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238297</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>185.3892167411498</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>9.146142788178468</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703253</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205763855</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>9.146142788180718</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>211.8172046759422</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.27859867330056</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>32.84316668127781</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>833.1938928750989</v>
+        <v>423.8554133656</v>
       </c>
       <c r="C2" t="n">
-        <v>566.8162363079209</v>
+        <v>423.8554133656</v>
       </c>
       <c r="D2" t="n">
-        <v>566.8162363079209</v>
+        <v>423.8554133656</v>
       </c>
       <c r="E2" t="n">
-        <v>300.4385797407429</v>
+        <v>423.8554133656</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>416.9099126163966</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991315</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358411</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>634.167062227511</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>423.8554133656</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>423.8554133656</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>423.8554133656</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787.653248772002</v>
+        <v>354.787594686703</v>
       </c>
       <c r="C3" t="n">
-        <v>613.200219490875</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>464.2658098296238</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>305.0283548241683</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
         <v>21.09711040012049</v>
@@ -4410,16 +4410,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>247.7358133554696</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>438.3365024519934</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>648.3904695545984</v>
       </c>
       <c r="O3" t="n">
         <v>909.4672107560896</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>987.5840192239847</v>
       </c>
       <c r="T3" t="n">
-        <v>955.86858579207</v>
+        <v>790.7749408554223</v>
       </c>
       <c r="U3" t="n">
-        <v>955.86858579207</v>
+        <v>562.6390948922358</v>
       </c>
       <c r="V3" t="n">
-        <v>955.86858579207</v>
+        <v>562.6390948922358</v>
       </c>
       <c r="W3" t="n">
-        <v>955.86858579207</v>
+        <v>562.6390948922358</v>
       </c>
       <c r="X3" t="n">
-        <v>955.86858579207</v>
+        <v>354.787594686703</v>
       </c>
       <c r="Y3" t="n">
-        <v>955.86858579207</v>
+        <v>354.787594686703</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.9870578980309</v>
+        <v>232.1057215405108</v>
       </c>
       <c r="C4" t="n">
-        <v>167.9870578980309</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="D4" t="n">
-        <v>167.9870578980309</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980309</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>63.1695386126039</v>
       </c>
       <c r="G4" t="n">
         <v>21.09711040012049</v>
@@ -4495,13 +4495,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375335</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4513,25 +4513,25 @@
         <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407075</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407075</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>659.6853352735295</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="V4" t="n">
-        <v>434.3647144652088</v>
+        <v>719.2759572512189</v>
       </c>
       <c r="W4" t="n">
-        <v>167.9870578980309</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="X4" t="n">
-        <v>167.9870578980309</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="Y4" t="n">
-        <v>167.9870578980309</v>
+        <v>232.1057215405108</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>307.3840804899464</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="C5" t="n">
-        <v>307.3840804899464</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899464</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>53.98113264792551</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
@@ -4595,22 +4595,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>586.7364457822814</v>
       </c>
       <c r="V5" t="n">
-        <v>788.4778634388466</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="W5" t="n">
-        <v>573.7617370571243</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="X5" t="n">
-        <v>573.7617370571243</v>
+        <v>320.3587892151035</v>
       </c>
       <c r="Y5" t="n">
-        <v>573.7617370571243</v>
+        <v>53.98113264792551</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
         <v>21.09711040012049</v>
@@ -4644,22 +4644,22 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>117.4455628004801</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4668,28 +4668,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>887.8833378166544</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>652.7312295849117</v>
       </c>
       <c r="W6" t="n">
-        <v>1054.855520006025</v>
+        <v>398.4938728567101</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>398.4938728567101</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>398.4938728567101</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>340.1499327403632</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>171.2137498124562</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
         <v>21.09711040012049</v>
@@ -4750,25 +4750,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>356.2217926073722</v>
       </c>
       <c r="V7" t="n">
-        <v>1054.855520006025</v>
+        <v>356.2217926073722</v>
       </c>
       <c r="W7" t="n">
-        <v>970.5805276121504</v>
+        <v>89.84413604019426</v>
       </c>
       <c r="X7" t="n">
-        <v>742.590976714133</v>
+        <v>89.84413604019426</v>
       </c>
       <c r="Y7" t="n">
-        <v>521.7983975706029</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1412.134398099142</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C8" t="n">
-        <v>1043.17188115873</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D8" t="n">
-        <v>684.90618255198</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>299.1179299537358</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4805,7 +4805,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139076</v>
+        <v>1990.031519739804</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163264</v>
+        <v>1599.892187763993</v>
       </c>
     </row>
     <row r="9">
@@ -4890,19 +4890,19 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781439</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560478</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1946.556931114678</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>706.8033708781536</v>
+        <v>368.9218676324038</v>
       </c>
       <c r="C10" t="n">
-        <v>537.8671879502467</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D10" t="n">
-        <v>387.750548537911</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>239.8374549555178</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>92.94750745760749</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>92.94750745760749</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>92.94750745760749</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1619.563190355082</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1422.934442514944</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.233965749941</v>
+        <v>1422.934442514944</v>
       </c>
       <c r="U10" t="n">
-        <v>1337.233965749941</v>
+        <v>1133.816105018781</v>
       </c>
       <c r="V10" t="n">
-        <v>1337.233965749941</v>
+        <v>879.1316168128944</v>
       </c>
       <c r="W10" t="n">
-        <v>1337.233965749941</v>
+        <v>589.7144467759339</v>
       </c>
       <c r="X10" t="n">
-        <v>1109.244414851923</v>
+        <v>589.7144467759339</v>
       </c>
       <c r="Y10" t="n">
-        <v>888.4518357083933</v>
+        <v>368.9218676324038</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2315.152497609988</v>
+        <v>2317.747847446864</v>
       </c>
       <c r="C11" t="n">
-        <v>1946.189980669576</v>
+        <v>1948.785330506453</v>
       </c>
       <c r="D11" t="n">
-        <v>1587.924282062826</v>
+        <v>1590.519631899702</v>
       </c>
       <c r="E11" t="n">
-        <v>1202.136029464582</v>
+        <v>1204.731379301458</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7454745118501</v>
+        <v>793.7454745118503</v>
       </c>
       <c r="G11" t="n">
         <v>379.8006473127039</v>
       </c>
       <c r="H11" t="n">
-        <v>93.76531551814404</v>
+        <v>93.76531551814416</v>
       </c>
       <c r="I11" t="n">
-        <v>95.21173263692071</v>
+        <v>95.211732636921</v>
       </c>
       <c r="J11" t="n">
-        <v>377.8919112275261</v>
+        <v>377.8919112275269</v>
       </c>
       <c r="K11" t="n">
-        <v>852.2947399039331</v>
+        <v>852.294739903934</v>
       </c>
       <c r="L11" t="n">
-        <v>1477.735160302616</v>
+        <v>1477.735160302617</v>
       </c>
       <c r="M11" t="n">
-        <v>2205.327574907689</v>
+        <v>2205.327574907693</v>
       </c>
       <c r="N11" t="n">
-        <v>2949.307003834357</v>
+        <v>2949.307003834361</v>
       </c>
       <c r="O11" t="n">
-        <v>3638.490420549543</v>
+        <v>3638.490420549548</v>
       </c>
       <c r="P11" t="n">
-        <v>4192.191521035126</v>
+        <v>4192.191521035133</v>
       </c>
       <c r="Q11" t="n">
-        <v>4559.825241454999</v>
+        <v>4559.825241455005</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.265775907202</v>
+        <v>4688.265775907208</v>
       </c>
       <c r="S11" t="n">
-        <v>4603.670815540894</v>
+        <v>4603.670815540901</v>
       </c>
       <c r="T11" t="n">
-        <v>4402.629237414381</v>
+        <v>4402.629237414388</v>
       </c>
       <c r="U11" t="n">
-        <v>4149.188970524687</v>
+        <v>4149.188970524693</v>
       </c>
       <c r="V11" t="n">
-        <v>3818.126083181116</v>
+        <v>3818.126083181122</v>
       </c>
       <c r="W11" t="n">
-        <v>3465.357427911002</v>
+        <v>3465.357427911008</v>
       </c>
       <c r="X11" t="n">
-        <v>3091.891669649922</v>
+        <v>3091.891669649928</v>
       </c>
       <c r="Y11" t="n">
-        <v>2701.75233767411</v>
+        <v>2701.752337674116</v>
       </c>
     </row>
     <row r="12">
@@ -5103,40 +5103,40 @@
         <v>619.9720797153341</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7346247098785</v>
+        <v>460.7346247098786</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2000667367635</v>
+        <v>314.2000667367636</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4402980405273</v>
+        <v>178.4402980405274</v>
       </c>
       <c r="H12" t="n">
-        <v>93.76531551814404</v>
+        <v>93.76531551814416</v>
       </c>
       <c r="I12" t="n">
-        <v>93.76531551814404</v>
+        <v>93.76531551814416</v>
       </c>
       <c r="J12" t="n">
-        <v>243.3098463766228</v>
+        <v>243.3098463766233</v>
       </c>
       <c r="K12" t="n">
-        <v>577.0600934411144</v>
+        <v>577.0600934411154</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.15102911314</v>
+        <v>1072.151029113142</v>
       </c>
       <c r="M12" t="n">
-        <v>1669.25566728385</v>
+        <v>1072.151029113142</v>
       </c>
       <c r="N12" t="n">
-        <v>2296.572533402383</v>
+        <v>1699.467895231676</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.046693765828</v>
+        <v>2251.120476233798</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.046693765828</v>
+        <v>2319.922996253379</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.046693765828</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>633.4260024124297</v>
+        <v>580.015161645477</v>
       </c>
       <c r="C13" t="n">
-        <v>464.4898194845229</v>
+        <v>411.0789787175701</v>
       </c>
       <c r="D13" t="n">
-        <v>464.4898194845229</v>
+        <v>260.9623393052343</v>
       </c>
       <c r="E13" t="n">
-        <v>464.4898194845229</v>
+        <v>260.9623393052343</v>
       </c>
       <c r="F13" t="n">
-        <v>317.5998719866125</v>
+        <v>260.9623393052343</v>
       </c>
       <c r="G13" t="n">
-        <v>317.5998719866125</v>
+        <v>93.76531551814416</v>
       </c>
       <c r="H13" t="n">
-        <v>175.8798211658401</v>
+        <v>93.76531551814416</v>
       </c>
       <c r="I13" t="n">
-        <v>93.76531551814404</v>
+        <v>93.76531551814416</v>
       </c>
       <c r="J13" t="n">
-        <v>173.9372723687391</v>
+        <v>173.9372723687395</v>
       </c>
       <c r="K13" t="n">
-        <v>435.5212620398436</v>
+        <v>435.5212620398443</v>
       </c>
       <c r="L13" t="n">
-        <v>825.7851432062832</v>
+        <v>825.7851432062844</v>
       </c>
       <c r="M13" t="n">
-        <v>1247.652809956958</v>
+        <v>1247.652809956959</v>
       </c>
       <c r="N13" t="n">
-        <v>1664.924022934752</v>
+        <v>1664.924022934754</v>
       </c>
       <c r="O13" t="n">
-        <v>2034.325229908155</v>
+        <v>2034.325229908157</v>
       </c>
       <c r="P13" t="n">
-        <v>2326.891096275502</v>
+        <v>2326.891096275504</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.01345711647</v>
+        <v>2446.013457116474</v>
       </c>
       <c r="R13" t="n">
-        <v>2378.926184398472</v>
+        <v>2378.926184398475</v>
       </c>
       <c r="S13" t="n">
-        <v>2196.055238505407</v>
+        <v>2196.05523850541</v>
       </c>
       <c r="T13" t="n">
-        <v>1976.449823383566</v>
+        <v>1976.44982338357</v>
       </c>
       <c r="U13" t="n">
-        <v>1687.374546300384</v>
+        <v>1687.374546300387</v>
       </c>
       <c r="V13" t="n">
-        <v>1432.690058094497</v>
+        <v>1432.690058094501</v>
       </c>
       <c r="W13" t="n">
-        <v>1143.272888057536</v>
+        <v>1143.27288805754</v>
       </c>
       <c r="X13" t="n">
-        <v>915.2833371595189</v>
+        <v>915.2833371595225</v>
       </c>
       <c r="Y13" t="n">
-        <v>694.4907580159887</v>
+        <v>761.6636264757167</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5367,16 +5367,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1052.829365488567</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>883.8931825606599</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>733.7765431483241</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>585.863449565931</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>438.9735020680206</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>271.7774027829005</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H16" t="n">
-        <v>130.0655716250986</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1683.259960360354</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1455.270409462336</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1234.477830318806</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474245</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230441</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5838,19 +5838,19 @@
         <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>430.7826650753331</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876679</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.963121559761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830935</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830935</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851831</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.903366400063</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.903366400063</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614378</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179076</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876679</v>
+        <v>639.6425904082704</v>
       </c>
       <c r="C28" t="n">
-        <v>411.963121559761</v>
+        <v>470.7064074803635</v>
       </c>
       <c r="D28" t="n">
-        <v>411.963121559761</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,49 +6385,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614378</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179076</v>
+        <v>821.2910552385101</v>
       </c>
     </row>
     <row r="29">
@@ -6443,10 +6443,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,25 +6455,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6655,16 +6655,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876679</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C34" t="n">
-        <v>411.963121559761</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>411.963121559761</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>411.963121559761</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038334</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614378</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179076</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7020,22 +7020,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400699</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C37" t="n">
-        <v>344.917417812163</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D37" t="n">
-        <v>344.917417812163</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>344.917417812163</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.917417812163</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7099,13 +7099,13 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797728</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
         <v>2035.089393279801</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138397</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703096</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="38">
@@ -7172,13 +7172,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,10 +7494,10 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876702</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597633</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597633</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396418</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359457</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X43" t="n">
-        <v>983.34034846144</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179099</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>680.448174698413</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E46" t="n">
         <v>382.4184417036842</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5.262887399594234</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8070,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418266</v>
+        <v>99.37288961069065</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8538,22 +8538,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.5240487471577</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>255.8421700460953</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.569396338501065</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2.569396338507204</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>119.3778721344139</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5250535492193</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.3028503125646</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.29336059121904</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>66.50113977512706</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I16" t="n">
-        <v>45.37941682721006</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.4693302300347</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>123.7828069546817</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>139.4693302300339</v>
+        <v>124.9899273368044</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>137.2878198583907</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>124.5310997715171</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>40.32043864788733</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>136.2749052347528</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194358</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>186.7544012944562</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,16 +25789,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>137.2878198583884</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>40.32043864788577</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>98.55338150863673</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>185.741486670817</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>876586.4279118145</v>
+        <v>876586.4279118151</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>876831.7541419416</v>
+        <v>876831.7541419414</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>876831.7541419414</v>
+        <v>876831.7541419413</v>
       </c>
     </row>
     <row r="11">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583909</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583913</v>
-      </c>
-      <c r="C2" t="n">
-        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
@@ -26323,37 +26323,37 @@
         <v>544669.9127392792</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="G2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907544</v>
       </c>
       <c r="K2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="O2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
-        <v>506886.0326267373</v>
+        <v>506886.032626739</v>
       </c>
       <c r="F3" t="n">
-        <v>585.0966390458091</v>
+        <v>585.0966390440949</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>95382.64613756974</v>
       </c>
       <c r="M3" t="n">
-        <v>132447.3436061365</v>
+        <v>132447.3436061369</v>
       </c>
       <c r="N3" t="n">
-        <v>157.204955476778</v>
+        <v>157.2049554763881</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249437.9663307044</v>
+        <v>249437.9663307045</v>
       </c>
       <c r="C4" t="n">
         <v>249437.9663307045</v>
@@ -26457,7 +26457,7 @@
         <v>9947.144321768897</v>
       </c>
       <c r="P4" t="n">
-        <v>9947.14432176889</v>
+        <v>9947.144321768897</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101072.4410767595</v>
+        <v>101072.4410767596</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-438370.5554677724</v>
+        <v>-438370.5554677728</v>
       </c>
       <c r="C6" t="n">
-        <v>241717.4251234205</v>
+        <v>241717.4251234207</v>
       </c>
       <c r="D6" t="n">
-        <v>-67793.35199461851</v>
+        <v>-67793.35199461854</v>
       </c>
       <c r="E6" t="n">
-        <v>-73235.37153407341</v>
+        <v>-73270.67998562753</v>
       </c>
       <c r="F6" t="n">
-        <v>433169.1840060319</v>
+        <v>433134.4460805978</v>
       </c>
       <c r="G6" t="n">
-        <v>433754.2806450778</v>
+        <v>433719.542719642</v>
       </c>
       <c r="H6" t="n">
-        <v>433754.2806450779</v>
+        <v>433719.542719642</v>
       </c>
       <c r="I6" t="n">
-        <v>433754.2806450781</v>
+        <v>433719.5427196423</v>
       </c>
       <c r="J6" t="n">
-        <v>364755.126225964</v>
+        <v>364720.3883005285</v>
       </c>
       <c r="K6" t="n">
-        <v>433754.2806450779</v>
+        <v>433719.5427196422</v>
       </c>
       <c r="L6" t="n">
-        <v>338371.6345075084</v>
+        <v>338336.8965820723</v>
       </c>
       <c r="M6" t="n">
-        <v>301306.9370389416</v>
+        <v>301272.1991135054</v>
       </c>
       <c r="N6" t="n">
-        <v>433597.0756896013</v>
+        <v>433562.3377641657</v>
       </c>
       <c r="O6" t="n">
-        <v>433754.280645078</v>
+        <v>433719.5427196423</v>
       </c>
       <c r="P6" t="n">
-        <v>433754.2806450778</v>
+        <v>433719.5427196422</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.467948760093</v>
+        <v>1367.467948760094</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26796,7 +26796,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.0664439768</v>
+        <v>1172.066443976802</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
-        <v>433.4030566425537</v>
+        <v>433.4030566425553</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5075515815808558</v>
+        <v>0.5075515815792642</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>531.4816118767616</v>
+        <v>531.4816118767632</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6418441228479423</v>
+        <v>0.6418441228463507</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>531.4816118767616</v>
+        <v>531.4816118767632</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6418441228479423</v>
+        <v>0.6418441228463507</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>531.4816118767616</v>
+        <v>531.4816118767632</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6418441228479423</v>
+        <v>0.6418441228463507</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>163.2888308038642</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27436,10 +27436,10 @@
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>141.0324363441212</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27455,22 +27455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>98.70367459325706</v>
       </c>
       <c r="T3" t="n">
-        <v>96.84392271306179</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>125.231963108188</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27585,16 +27585,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>29.0702287235905</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>22.80911833508486</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,10 +27622,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>387.1550383620945</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27667,22 +27667,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>64.03837846862876</v>
       </c>
       <c r="W5" t="n">
-        <v>136.6720035995079</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27692,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>98.00053483788332</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
@@ -27752,16 +27752,16 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>177.4358965225434</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27822,25 +27822,25 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>203.0907558666553</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>150.5250979684218</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>173.0313165627901</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>177.6438356319777</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>63.51288152319225</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.84347199735282</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,16 +28065,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29214,7 +29214,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-3.287668775498232e-12</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29727,7 +29727,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.497358587980269</v>
+        <v>5.497358587980275</v>
       </c>
       <c r="H11" t="n">
-        <v>56.29982363915294</v>
+        <v>56.299823639153</v>
       </c>
       <c r="I11" t="n">
-        <v>211.9369169631095</v>
+        <v>211.9369169631098</v>
       </c>
       <c r="J11" t="n">
-        <v>466.5814384565908</v>
+        <v>466.5814384565913</v>
       </c>
       <c r="K11" t="n">
-        <v>699.2846274857957</v>
+        <v>699.2846274857965</v>
       </c>
       <c r="L11" t="n">
-        <v>867.524415372697</v>
+        <v>867.5244153726981</v>
       </c>
       <c r="M11" t="n">
-        <v>965.2880661616911</v>
+        <v>965.2880661616922</v>
       </c>
       <c r="N11" t="n">
-        <v>980.9074362497901</v>
+        <v>980.9074362497912</v>
       </c>
       <c r="O11" t="n">
-        <v>926.2430767905612</v>
+        <v>926.2430767905623</v>
       </c>
       <c r="P11" t="n">
-        <v>790.5270366497982</v>
+        <v>790.5270366497991</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.6528822177546</v>
+        <v>593.6528822177554</v>
       </c>
       <c r="R11" t="n">
-        <v>345.3234514022159</v>
+        <v>345.3234514022163</v>
       </c>
       <c r="S11" t="n">
-        <v>125.2710588236005</v>
+        <v>125.2710588236006</v>
       </c>
       <c r="T11" t="n">
-        <v>24.06468721888364</v>
+        <v>24.06468721888367</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4397886870384214</v>
+        <v>0.4397886870384219</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.941346153936804</v>
+        <v>2.941346153936807</v>
       </c>
       <c r="H12" t="n">
-        <v>28.40721153933703</v>
+        <v>28.40721153933706</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.8927083418978</v>
+        <v>277.8927083418981</v>
       </c>
       <c r="K12" t="n">
-        <v>474.9629006556636</v>
+        <v>474.9629006556642</v>
       </c>
       <c r="L12" t="n">
-        <v>638.6462339940416</v>
+        <v>638.6462339940423</v>
       </c>
       <c r="M12" t="n">
-        <v>745.2700320742505</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>764.9951122030637</v>
+        <v>764.9951122030647</v>
       </c>
       <c r="O12" t="n">
-        <v>401.6610528923684</v>
+        <v>699.8210737395174</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>203.4719023836037</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.4602564218283</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.63421474527349</v>
+        <v>54.63421474527355</v>
       </c>
       <c r="T12" t="n">
-        <v>11.85568910292948</v>
+        <v>11.85568910292949</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935096153905793</v>
+        <v>0.1935096153905795</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.465925809239511</v>
+        <v>2.465925809239514</v>
       </c>
       <c r="H13" t="n">
-        <v>21.92432219487495</v>
+        <v>21.92432219487497</v>
       </c>
       <c r="I13" t="n">
-        <v>74.15711433603916</v>
+        <v>74.15711433603924</v>
       </c>
       <c r="J13" t="n">
-        <v>174.3409547132335</v>
+        <v>174.3409547132337</v>
       </c>
       <c r="K13" t="n">
-        <v>286.4957440189177</v>
+        <v>286.4957440189181</v>
       </c>
       <c r="L13" t="n">
-        <v>366.6159153118452</v>
+        <v>366.6159153118457</v>
       </c>
       <c r="M13" t="n">
-        <v>386.5450793519718</v>
+        <v>386.5450793519722</v>
       </c>
       <c r="N13" t="n">
-        <v>377.3539013357157</v>
+        <v>377.3539013357161</v>
       </c>
       <c r="O13" t="n">
-        <v>348.5474043823267</v>
+        <v>348.5474043823271</v>
       </c>
       <c r="P13" t="n">
-        <v>298.2425178738404</v>
+        <v>298.2425178738408</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.487660262774</v>
+        <v>206.4876602627743</v>
       </c>
       <c r="R13" t="n">
-        <v>110.8769913863511</v>
+        <v>110.8769913863512</v>
       </c>
       <c r="S13" t="n">
-        <v>42.97436160283765</v>
+        <v>42.9743616028377</v>
       </c>
       <c r="T13" t="n">
-        <v>10.53622845765973</v>
+        <v>10.53622845765974</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345050441403371</v>
+        <v>0.1345050441403373</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32558,22 +32558,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N21" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>209.2370040367373</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33269,16 +33269,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,10 +33989,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34214,13 +34214,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>245.8118639189582</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>153.4895779655505</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34790,7 +34790,7 @@
         <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="P3" t="n">
         <v>118.240000033741</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="K6" t="n">
         <v>75.43840481763047</v>
@@ -35030,7 +35030,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35258,22 +35258,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>622.4553810291982</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>505.5216991696276</v>
       </c>
       <c r="Q9" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.461027392703613</v>
+        <v>1.461027392703841</v>
       </c>
       <c r="J11" t="n">
-        <v>285.5355339299045</v>
+        <v>285.535533929905</v>
       </c>
       <c r="K11" t="n">
-        <v>479.1947764408151</v>
+        <v>479.1947764408159</v>
       </c>
       <c r="L11" t="n">
-        <v>631.7580004027097</v>
+        <v>631.7580004027109</v>
       </c>
       <c r="M11" t="n">
-        <v>734.9418329344184</v>
+        <v>734.9418329344195</v>
       </c>
       <c r="N11" t="n">
-        <v>751.4943726531992</v>
+        <v>751.4943726532003</v>
       </c>
       <c r="O11" t="n">
-        <v>696.1448653688744</v>
+        <v>696.1448653688756</v>
       </c>
       <c r="P11" t="n">
-        <v>559.2940408945287</v>
+        <v>559.2940408945296</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.3471923433051</v>
+        <v>371.3471923433059</v>
       </c>
       <c r="R11" t="n">
-        <v>129.7379135880838</v>
+        <v>129.7379135880842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.0550816752311</v>
+        <v>151.0550816752314</v>
       </c>
       <c r="K12" t="n">
-        <v>337.1214616813047</v>
+        <v>337.1214616813052</v>
       </c>
       <c r="L12" t="n">
-        <v>500.0918542141674</v>
+        <v>500.0918542141681</v>
       </c>
       <c r="M12" t="n">
-        <v>603.1359981522321</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.6534001197305</v>
+        <v>633.6534001197314</v>
       </c>
       <c r="O12" t="n">
-        <v>259.064808447924</v>
+        <v>557.2248292950729</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>69.49749496927343</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.4784823358067</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>80.98177459656068</v>
+        <v>80.98177459656088</v>
       </c>
       <c r="K13" t="n">
-        <v>264.2262521930348</v>
+        <v>264.2262521930352</v>
       </c>
       <c r="L13" t="n">
-        <v>394.2059405721614</v>
+        <v>394.2059405721618</v>
       </c>
       <c r="M13" t="n">
-        <v>426.1289563138124</v>
+        <v>426.1289563138128</v>
       </c>
       <c r="N13" t="n">
-        <v>421.4860737149443</v>
+        <v>421.4860737149447</v>
       </c>
       <c r="O13" t="n">
-        <v>373.1325322963664</v>
+        <v>373.1325322963668</v>
       </c>
       <c r="P13" t="n">
-        <v>295.5210771387339</v>
+        <v>295.5210771387343</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.3256170110796</v>
+        <v>120.3256170110799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N21" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
         <v>373.2618997060454</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409634</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191314</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409634</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
         <v>394.3420143191314</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191298</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
         <v>426.2724270010451</v>
@@ -37476,7 +37476,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,10 +37637,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>103.6778299969399</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37953,7 +37953,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066261</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
